--- a/NSOT/golden_states/S2.xlsx
+++ b/NSOT/golden_states/S2.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>172.20.20.16/24</t>
+          <t>172.20.20.13/24</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
